--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -416,35 +416,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Reward</v>
+        <v>salaries</v>
       </c>
       <c r="B2">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>45777.125185185185</v>
+        <v>45782.125185185185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Salary</v>
+        <v xml:space="preserve">freelance </v>
       </c>
       <c r="B3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="C3" s="1">
-        <v>45776.125185185185</v>
+        <v>45782.125185185185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Freelance</v>
+        <v>crypto</v>
       </c>
       <c r="B4">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="C4" s="1">
-        <v>45776.125185185185</v>
+        <v>45782.125185185185</v>
       </c>
     </row>
   </sheetData>
